--- a/02b-interview-question/Book1.xlsx
+++ b/02b-interview-question/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\Desktop\Probability\probability-and-inference-portfolio-kane-donald\02b-interview-question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B4EB6-F5BF-476C-B686-F408199771EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1DF041-F275-4401-BA41-7797B9A81492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="1590" windowWidth="20985" windowHeight="17370" xr2:uid="{6D5CB3BF-9F5E-4FEA-BAD1-D74C9A329631}"/>
+    <workbookView xWindow="10245" yWindow="4635" windowWidth="20985" windowHeight="17370" xr2:uid="{6D5CB3BF-9F5E-4FEA-BAD1-D74C9A329631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="B4:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,10 @@
       </c>
     </row>
     <row r="23" spans="4:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <f>D10/F10</f>
+        <v>0.55862068965517242</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
